--- a/cache/insertsql-2.xlsx
+++ b/cache/insertsql-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DjangoProjects\aha_greenhouse\cache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F731097-348B-4630-B9D9-2B68B1D3F55D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF359A-8350-4647-8D03-C4BD8052B6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="5" xr2:uid="{CB8C7D88-600A-42E6-B59A-FD4E6BA06E27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="4" xr2:uid="{CB8C7D88-600A-42E6-B59A-FD4E6BA06E27}"/>
   </bookViews>
   <sheets>
     <sheet name="greenhouse" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="135">
   <si>
     <t>大棚名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,22 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大棚2-土壤水分1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大棚2-土壤水分2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大棚3-土壤水分1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大棚3-土壤水分2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大棚1-通风天窗</t>
   </si>
   <si>
@@ -491,6 +475,25 @@
   <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大棚1-土壤温度1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大棚1-土壤温度2</t>
+  </si>
+  <si>
+    <t>大棚2-土壤温度1</t>
+  </si>
+  <si>
+    <t>大棚2-土壤温度2</t>
+  </si>
+  <si>
+    <t>大棚3-土壤温度1</t>
+  </si>
+  <si>
+    <t>大棚3-土壤温度2</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1347,7 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(20,34)+RAND()</f>
-        <v>33.151120927285525</v>
+        <v>20.513699864104172</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>75</v>
@@ -1357,7 +1360,7 @@
       </c>
       <c r="G2" t="str">
         <f ca="1">"INSERT INTO monitor_environmentdata VALUES("&amp;A2&amp;",'"&amp;C2&amp;"',datetime('"&amp;D2&amp;"'),"&amp;E2&amp;","&amp;F2&amp;");"</f>
-        <v>INSERT INTO monitor_environmentdata VALUES(1,'33.1511209272855',datetime('2021-05-07  12:14:48'),3,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(1,'20.5136998641042',datetime('2021-05-07  12:14:48'),3,1);</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C31" ca="1" si="0">RANDBETWEEN(20,34)+RAND()</f>
-        <v>33.618264354848826</v>
+        <v>25.235914895213426</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>74</v>
@@ -1383,7 +1386,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" ca="1" si="1">"INSERT INTO monitor_environmentdata VALUES("&amp;A3&amp;",'"&amp;C3&amp;"',datetime('"&amp;D3&amp;"'),"&amp;E3&amp;","&amp;F3&amp;");"</f>
-        <v>INSERT INTO monitor_environmentdata VALUES(2,'33.6182643548488',datetime('2021-05-07  12:14:48'),4,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(2,'25.2359148952134',datetime('2021-05-07  12:14:48'),4,1);</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -1396,7 +1399,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.541390395091533</v>
+        <v>25.540089165102117</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
@@ -1409,7 +1412,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(3,'24.5413903950915',datetime('2021-05-07  12:14:48'),13,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(3,'25.5400891651021',datetime('2021-05-07  12:14:48'),13,1);</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -1422,7 +1425,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.644249558451619</v>
+        <v>31.267034753652069</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>74</v>
@@ -1435,7 +1438,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(4,'24.6442495584516',datetime('2021-05-07  12:14:48'),14,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(4,'31.2670347536521',datetime('2021-05-07  12:14:48'),14,1);</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>71</v>
@@ -1450,7 +1453,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.131996174080054</v>
+        <v>29.966454074560801</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>74</v>
@@ -1463,7 +1466,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(5,'20.1319961740801',datetime('2021-05-07  12:14:48'),23,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(5,'29.9664540745608',datetime('2021-05-07  12:14:48'),23,1);</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
@@ -1476,7 +1479,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.926216392020944</v>
+        <v>22.525068375977174</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>74</v>
@@ -1489,7 +1492,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(6,'26.9262163920209',datetime('2021-05-07  12:14:48'),24,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(6,'22.5250683759772',datetime('2021-05-07  12:14:48'),24,1);</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.76812180804783</v>
+        <v>29.139051568994791</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>76</v>
@@ -1515,7 +1518,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(7,'27.7681218080478',datetime('2021-05-07  12:19:48'),3,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(7,'29.1390515689948',datetime('2021-05-07  12:19:48'),3,1);</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -1528,7 +1531,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.16528505684483</v>
+        <v>21.1147550595452</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>76</v>
@@ -1541,7 +1544,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(8,'20.1652850568448',datetime('2021-05-07  12:19:48'),4,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(8,'21.1147550595452',datetime('2021-05-07  12:19:48'),4,1);</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.394465203678227</v>
+        <v>23.565744281065303</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>76</v>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(9,'29.3944652036782',datetime('2021-05-07  12:19:48'),13,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(9,'23.5657442810653',datetime('2021-05-07  12:19:48'),13,1);</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -1580,7 +1583,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.605181005941994</v>
+        <v>29.53997820369478</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>76</v>
@@ -1593,7 +1596,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(10,'23.605181005942',datetime('2021-05-07  12:19:48'),14,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(10,'29.5399782036948',datetime('2021-05-07  12:19:48'),14,1);</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -1606,7 +1609,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34.684475882625016</v>
+        <v>20.04410860110071</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>76</v>
@@ -1619,7 +1622,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(11,'34.684475882625',datetime('2021-05-07  12:19:48'),23,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(11,'20.0441086011007',datetime('2021-05-07  12:19:48'),23,1);</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -1632,7 +1635,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.730375808478385</v>
+        <v>33.580546518147109</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>76</v>
@@ -1645,7 +1648,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(12,'25.7303758084784',datetime('2021-05-07  12:19:48'),24,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(12,'33.5805465181471',datetime('2021-05-07  12:19:48'),24,1);</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -1658,7 +1661,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.719023247947582</v>
+        <v>33.790223345091647</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>77</v>
@@ -1671,7 +1674,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(13,'28.7190232479476',datetime('2021-05-07  12:24:48'),3,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(13,'33.7902233450916',datetime('2021-05-07  12:24:48'),3,1);</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -1684,7 +1687,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.076974425810892</v>
+        <v>27.41110738329326</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>77</v>
@@ -1697,7 +1700,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(14,'30.0769744258109',datetime('2021-05-07  12:24:48'),4,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(14,'27.4111073832933',datetime('2021-05-07  12:24:48'),4,1);</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.869372647254604</v>
+        <v>31.653156053271587</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>77</v>
@@ -1723,7 +1726,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(15,'23.8693726472546',datetime('2021-05-07  12:24:48'),13,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(15,'31.6531560532716',datetime('2021-05-07  12:24:48'),13,1);</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -1736,7 +1739,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.974537114238032</v>
+        <v>22.198934586948457</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>77</v>
@@ -1749,7 +1752,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(16,'32.974537114238',datetime('2021-05-07  12:24:48'),14,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(16,'22.1989345869485',datetime('2021-05-07  12:24:48'),14,1);</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.027931474287925</v>
+        <v>21.940354452351126</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>77</v>
@@ -1775,7 +1778,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(17,'33.0279314742879',datetime('2021-05-07  12:24:48'),23,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(17,'21.9403544523511',datetime('2021-05-07  12:24:48'),23,1);</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
@@ -1788,7 +1791,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.35129055597406</v>
+        <v>27.247241748275037</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>77</v>
@@ -1801,7 +1804,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(18,'29.3512905559741',datetime('2021-05-07  12:24:48'),24,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(18,'27.247241748275',datetime('2021-05-07  12:24:48'),24,1);</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -1814,7 +1817,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.557584662880004</v>
+        <v>31.560200704743018</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>78</v>
@@ -1827,7 +1830,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(19,'29.55758466288',datetime('2021-05-07  12:29:48'),3,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(19,'31.560200704743',datetime('2021-05-07  12:29:48'),3,1);</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
@@ -1840,7 +1843,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.93779386347558</v>
+        <v>22.166007243660079</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>78</v>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(20,'30.9377938634756',datetime('2021-05-07  12:29:48'),4,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(20,'22.1660072436601',datetime('2021-05-07  12:29:48'),4,1);</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
@@ -1866,7 +1869,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.376876100216229</v>
+        <v>34.112222014125891</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>78</v>
@@ -1879,7 +1882,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(21,'23.3768761002162',datetime('2021-05-07  12:29:48'),13,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(21,'34.1122220141259',datetime('2021-05-07  12:29:48'),13,1);</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
@@ -1892,7 +1895,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.491296500701726</v>
+        <v>24.156869513283507</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>78</v>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(22,'27.4912965007017',datetime('2021-05-07  12:29:48'),14,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(22,'24.1568695132835',datetime('2021-05-07  12:29:48'),14,1);</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.701471555651299</v>
+        <v>26.875085142174289</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>78</v>
@@ -1931,7 +1934,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(23,'25.7014715556513',datetime('2021-05-07  12:29:48'),23,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(23,'26.8750851421743',datetime('2021-05-07  12:29:48'),23,1);</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
@@ -1944,7 +1947,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.911515809584177</v>
+        <v>34.059412084940895</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>78</v>
@@ -1957,7 +1960,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(24,'25.9115158095842',datetime('2021-05-07  12:29:48'),24,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(24,'34.0594120849409',datetime('2021-05-07  12:29:48'),24,1);</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
@@ -1970,7 +1973,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.709119273704186</v>
+        <v>26.618199436656113</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>79</v>
@@ -1983,7 +1986,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(25,'20.7091192737042',datetime('2021-05-07  12:34:48'),3,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(25,'26.6181994366561',datetime('2021-05-07  12:34:48'),3,1);</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
@@ -1996,7 +1999,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.525040369196375</v>
+        <v>28.920125873709935</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>79</v>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(26,'24.5250403691964',datetime('2021-05-07  12:34:48'),4,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(26,'28.9201258737099',datetime('2021-05-07  12:34:48'),4,1);</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.614469695532026</v>
+        <v>34.381490956736968</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>79</v>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(27,'21.614469695532',datetime('2021-05-07  12:34:48'),13,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(27,'34.381490956737',datetime('2021-05-07  12:34:48'),13,1);</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
@@ -2048,7 +2051,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.118630046651422</v>
+        <v>24.367801629102598</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>79</v>
@@ -2061,7 +2064,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(28,'30.1186300466514',datetime('2021-05-07  12:34:48'),14,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(28,'24.3678016291026',datetime('2021-05-07  12:34:48'),14,1);</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
@@ -2074,7 +2077,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.713354214878514</v>
+        <v>21.668717438381357</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>79</v>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(29,'28.7133542148785',datetime('2021-05-07  12:34:48'),23,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(29,'21.6687174383814',datetime('2021-05-07  12:34:48'),23,1);</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.763119816470883</v>
+        <v>33.764474478920441</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>79</v>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(30,'26.7631198164709',datetime('2021-05-07  12:34:48'),24,1);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(30,'33.7644744789204',datetime('2021-05-07  12:34:48'),24,1);</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
@@ -2126,7 +2129,7 @@
       </c>
       <c r="C32" s="1">
         <f ca="1">RANDBETWEEN(10,20)+RAND()</f>
-        <v>10.968129643826979</v>
+        <v>10.409705768881793</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>74</v>
@@ -2139,7 +2142,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(31,'10.968129643827',datetime('2021-05-07  12:14:48'),1,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(31,'10.4097057688818',datetime('2021-05-07  12:14:48'),1,2);</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
@@ -2152,7 +2155,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ref="C33:C61" ca="1" si="2">RANDBETWEEN(10,20)+RAND()</f>
-        <v>11.512750274963276</v>
+        <v>11.855420145178696</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>74</v>
@@ -2165,7 +2168,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(32,'11.5127502749633',datetime('2021-05-07  12:14:48'),2,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(32,'11.8554201451787',datetime('2021-05-07  12:14:48'),2,2);</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19.952312098560814</v>
+        <v>17.435744319257818</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>74</v>
@@ -2191,7 +2194,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(33,'19.9523120985608',datetime('2021-05-07  12:14:48'),11,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(33,'17.4357443192578',datetime('2021-05-07  12:14:48'),11,2);</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
@@ -2204,7 +2207,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14.50327362461638</v>
+        <v>17.888102823279596</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>74</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(34,'14.5032736246164',datetime('2021-05-07  12:14:48'),12,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(34,'17.8881028232796',datetime('2021-05-07  12:14:48'),12,2);</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -2229,7 +2232,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18.408922941011525</v>
+        <v>18.482001328099699</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>74</v>
@@ -2242,7 +2245,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(35,'18.4089229410115',datetime('2021-05-07  12:14:48'),21,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(35,'18.4820013280997',datetime('2021-05-07  12:14:48'),21,2);</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -2254,7 +2257,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.682936913213091</v>
+        <v>16.955051473721223</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>74</v>
@@ -2267,7 +2270,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(36,'16.6829369132131',datetime('2021-05-07  12:14:48'),22,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(36,'16.9550514737212',datetime('2021-05-07  12:14:48'),22,2);</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -2279,7 +2282,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.397544353833865</v>
+        <v>17.083844549216987</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>76</v>
@@ -2292,7 +2295,7 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(37,'13.3975443538339',datetime('2021-05-07  12:19:48'),1,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(37,'17.083844549217',datetime('2021-05-07  12:19:48'),1,2);</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2304,7 +2307,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19.126430355876117</v>
+        <v>12.112066182759895</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>76</v>
@@ -2317,7 +2320,7 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(38,'19.1264303558761',datetime('2021-05-07  12:19:48'),2,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(38,'12.1120661827599',datetime('2021-05-07  12:19:48'),2,2);</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2329,7 +2332,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19.708630090635143</v>
+        <v>15.702451677457343</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>76</v>
@@ -2342,7 +2345,7 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(39,'19.7086300906351',datetime('2021-05-07  12:19:48'),11,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(39,'15.7024516774573',datetime('2021-05-07  12:19:48'),11,2);</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2354,7 +2357,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.036052912703102</v>
+        <v>14.748377123002447</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>76</v>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(40,'17.0360529127031',datetime('2021-05-07  12:19:48'),12,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(40,'14.7483771230024',datetime('2021-05-07  12:19:48'),12,2);</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -2379,7 +2382,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.846171962049684</v>
+        <v>13.523488148735167</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>76</v>
@@ -2392,7 +2395,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(41,'13.8461719620497',datetime('2021-05-07  12:19:48'),21,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(41,'13.5234881487352',datetime('2021-05-07  12:19:48'),21,2);</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2404,7 +2407,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18.572686351041252</v>
+        <v>14.82886785533988</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>76</v>
@@ -2417,7 +2420,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(42,'18.5726863510413',datetime('2021-05-07  12:19:48'),22,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(42,'14.8288678553399',datetime('2021-05-07  12:19:48'),22,2);</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -2429,7 +2432,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.885740581989916</v>
+        <v>17.664581774573456</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>77</v>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(43,'13.8857405819899',datetime('2021-05-07  12:24:48'),1,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(43,'17.6645817745735',datetime('2021-05-07  12:24:48'),1,2);</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2454,7 +2457,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.694005969972554</v>
+        <v>10.169737043097568</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>77</v>
@@ -2467,7 +2470,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(44,'17.6940059699726',datetime('2021-05-07  12:24:48'),2,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(44,'10.1697370430976',datetime('2021-05-07  12:24:48'),2,2);</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -2479,7 +2482,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14.850715791798388</v>
+        <v>14.96509824144656</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>77</v>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(45,'14.8507157917984',datetime('2021-05-07  12:24:48'),11,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(45,'14.9650982414466',datetime('2021-05-07  12:24:48'),11,2);</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -2504,7 +2507,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.440508008448756</v>
+        <v>12.506124553435145</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>77</v>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(46,'16.4405080084488',datetime('2021-05-07  12:24:48'),12,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(46,'12.5061245534351',datetime('2021-05-07  12:24:48'),12,2);</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -2529,7 +2532,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20.657704776680475</v>
+        <v>10.986510305378813</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>77</v>
@@ -2542,7 +2545,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(47,'20.6577047766805',datetime('2021-05-07  12:24:48'),21,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(47,'10.9865103053788',datetime('2021-05-07  12:24:48'),21,2);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2554,7 +2557,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10.653150035248769</v>
+        <v>20.729323362184694</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>77</v>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(48,'10.6531500352488',datetime('2021-05-07  12:24:48'),22,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(48,'20.7293233621847',datetime('2021-05-07  12:24:48'),22,2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2579,7 +2582,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14.145547922320684</v>
+        <v>13.641209800140219</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>78</v>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(49,'14.1455479223207',datetime('2021-05-07  12:29:48'),1,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(49,'13.6412098001402',datetime('2021-05-07  12:29:48'),1,2);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2604,7 +2607,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19.495853241364756</v>
+        <v>19.38961858138288</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>78</v>
@@ -2617,7 +2620,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(50,'19.4958532413648',datetime('2021-05-07  12:29:48'),2,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(50,'19.3896185813829',datetime('2021-05-07  12:29:48'),2,2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,7 +2632,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.496118628027141</v>
+        <v>19.46968438662293</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>78</v>
@@ -2642,7 +2645,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(51,'13.4961186280271',datetime('2021-05-07  12:29:48'),11,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(51,'19.4696843866229',datetime('2021-05-07  12:29:48'),11,2);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2654,7 +2657,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18.95645138652857</v>
+        <v>15.723447766311821</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>78</v>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(52,'18.9564513865286',datetime('2021-05-07  12:29:48'),12,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(52,'15.7234477663118',datetime('2021-05-07  12:29:48'),12,2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2679,7 +2682,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.177210667263903</v>
+        <v>17.8508795843907</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>78</v>
@@ -2692,7 +2695,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(53,'17.1772106672639',datetime('2021-05-07  12:29:48'),21,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(53,'17.8508795843907',datetime('2021-05-07  12:29:48'),21,2);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,7 +2707,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20.159165533186535</v>
+        <v>18.666989388099019</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>78</v>
@@ -2717,7 +2720,7 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(54,'20.1591655331865',datetime('2021-05-07  12:29:48'),22,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(54,'18.666989388099',datetime('2021-05-07  12:29:48'),22,2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,7 +2732,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.244015657050415</v>
+        <v>18.769771304526518</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>79</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(55,'17.2440156570504',datetime('2021-05-07  12:34:48'),1,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(55,'18.7697713045265',datetime('2021-05-07  12:34:48'),1,2);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2754,7 +2757,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12.781616448127581</v>
+        <v>18.058612318089686</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>79</v>
@@ -2767,7 +2770,7 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(56,'12.7816164481276',datetime('2021-05-07  12:34:48'),2,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(56,'18.0586123180897',datetime('2021-05-07  12:34:48'),2,2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2779,7 +2782,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.657867722591057</v>
+        <v>13.344845431039197</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>79</v>
@@ -2792,7 +2795,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(57,'16.6578677225911',datetime('2021-05-07  12:34:48'),11,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(57,'13.3448454310392',datetime('2021-05-07  12:34:48'),11,2);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2804,7 +2807,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.998872001421073</v>
+        <v>16.371093205161632</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>79</v>
@@ -2817,7 +2820,7 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(58,'17.9988720014211',datetime('2021-05-07  12:34:48'),12,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(58,'16.3710932051616',datetime('2021-05-07  12:34:48'),12,2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2829,7 +2832,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14.49771965227386</v>
+        <v>12.73207894335647</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>79</v>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(59,'14.4977196522739',datetime('2021-05-07  12:34:48'),21,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(59,'12.7320789433565',datetime('2021-05-07  12:34:48'),21,2);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2854,7 +2857,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11.606751127730965</v>
+        <v>16.159215782282221</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>79</v>
@@ -2867,7 +2870,7 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(60,'11.606751127731',datetime('2021-05-07  12:34:48'),22,2);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(60,'16.1592157822822',datetime('2021-05-07  12:34:48'),22,2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2879,7 +2882,7 @@
       </c>
       <c r="C62" s="1">
         <f ca="1">RANDBETWEEN(500,700)</f>
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>74</v>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(61,'647',datetime('2021-05-07  12:14:48'),5,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(61,'629',datetime('2021-05-07  12:14:48'),5,3);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2904,7 +2907,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ref="C63:C70" ca="1" si="3">RANDBETWEEN(500,700)</f>
-        <v>572</v>
+        <v>671</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>74</v>
@@ -2917,7 +2920,7 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(62,'572',datetime('2021-05-07  12:14:48'),15,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(62,'671',datetime('2021-05-07  12:14:48'),15,3);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2929,7 +2932,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>658</v>
+        <v>506</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>74</v>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(63,'658',datetime('2021-05-07  12:14:48'),25,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(63,'506',datetime('2021-05-07  12:14:48'),25,3);</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -2954,7 +2957,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>607</v>
+        <v>547</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>77</v>
@@ -2967,7 +2970,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(64,'607',datetime('2021-05-07  12:24:48'),5,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(64,'547',datetime('2021-05-07  12:24:48'),5,3);</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -2979,7 +2982,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>77</v>
@@ -2992,7 +2995,7 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(65,'590',datetime('2021-05-07  12:24:48'),15,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(65,'542',datetime('2021-05-07  12:24:48'),15,3);</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3004,7 +3007,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>611</v>
+        <v>516</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>77</v>
@@ -3017,7 +3020,7 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G133" ca="1" si="4">"INSERT INTO monitor_environmentdata VALUES("&amp;A67&amp;",'"&amp;C67&amp;"',datetime('"&amp;D67&amp;"'),"&amp;E67&amp;","&amp;F67&amp;");"</f>
-        <v>INSERT INTO monitor_environmentdata VALUES(66,'611',datetime('2021-05-07  12:24:48'),25,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(66,'516',datetime('2021-05-07  12:24:48'),25,3);</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -3029,7 +3032,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>659</v>
+        <v>562</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>79</v>
@@ -3042,7 +3045,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(67,'659',datetime('2021-05-07  12:34:48'),5,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(67,'562',datetime('2021-05-07  12:34:48'),5,3);</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -3054,7 +3057,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>79</v>
@@ -3067,7 +3070,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(68,'556',datetime('2021-05-07  12:34:48'),15,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(68,'520',datetime('2021-05-07  12:34:48'),15,3);</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -3079,7 +3082,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>79</v>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(69,'584',datetime('2021-05-07  12:34:48'),25,3);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(69,'633',datetime('2021-05-07  12:34:48'),25,3);</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -3104,7 +3107,7 @@
       </c>
       <c r="C71" s="1">
         <f ca="1">RANDBETWEEN(40,50)+RAND()</f>
-        <v>43.496534837055563</v>
+        <v>47.726900996847256</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>74</v>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(70,'43.4965348370556',datetime('2021-05-07  12:14:48'),6,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(70,'47.7269009968473',datetime('2021-05-07  12:14:48'),6,4);</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -3129,7 +3132,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ref="C72:C79" ca="1" si="5">RANDBETWEEN(40,50)+RAND()</f>
-        <v>43.979450958258624</v>
+        <v>49.017411785968875</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>74</v>
@@ -3142,7 +3145,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(71,'43.9794509582586',datetime('2021-05-07  12:14:48'),16,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(71,'49.0174117859689',datetime('2021-05-07  12:14:48'),16,4);</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3154,7 +3157,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43.291488174820763</v>
+        <v>41.371571621341289</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>74</v>
@@ -3167,7 +3170,7 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(72,'43.2914881748208',datetime('2021-05-07  12:14:48'),26,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(72,'41.3715716213413',datetime('2021-05-07  12:14:48'),26,4);</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3179,7 +3182,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>50.616127849500366</v>
+        <v>43.634929267526111</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>77</v>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(73,'50.6161278495004',datetime('2021-05-07  12:24:48'),6,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(73,'43.6349292675261',datetime('2021-05-07  12:24:48'),6,4);</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -3204,7 +3207,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44.108670946987452</v>
+        <v>45.34805388866446</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>77</v>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(74,'44.1086709469875',datetime('2021-05-07  12:24:48'),16,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(74,'45.3480538886645',datetime('2021-05-07  12:24:48'),16,4);</v>
       </c>
       <c r="M75" s="4"/>
     </row>
@@ -3230,7 +3233,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>49.106760864947404</v>
+        <v>43.133762970791643</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>77</v>
@@ -3243,7 +3246,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(75,'49.1067608649474',datetime('2021-05-07  12:24:48'),26,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(75,'43.1337629707916',datetime('2021-05-07  12:24:48'),26,4);</v>
       </c>
       <c r="M76" s="4"/>
     </row>
@@ -3256,7 +3259,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40.254194244935086</v>
+        <v>43.381540495466041</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>79</v>
@@ -3269,7 +3272,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(76,'40.2541942449351',datetime('2021-05-07  12:34:48'),6,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(76,'43.381540495466',datetime('2021-05-07  12:34:48'),6,4);</v>
       </c>
       <c r="M77" s="4"/>
     </row>
@@ -3282,7 +3285,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>49.267330440661553</v>
+        <v>46.670157744673375</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>79</v>
@@ -3295,7 +3298,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(77,'49.2673304406616',datetime('2021-05-07  12:34:48'),16,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(77,'46.6701577446734',datetime('2021-05-07  12:34:48'),16,4);</v>
       </c>
       <c r="M78" s="4"/>
     </row>
@@ -3308,7 +3311,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44.695081050594652</v>
+        <v>42.781890802421721</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>79</v>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(78,'44.6950810505947',datetime('2021-05-07  12:34:48'),26,4);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(78,'42.7818908024217',datetime('2021-05-07  12:34:48'),26,4);</v>
       </c>
       <c r="M79" s="4"/>
     </row>
@@ -3334,7 +3337,7 @@
       </c>
       <c r="C80" s="1">
         <f ca="1">RANDBETWEEN(15,25)+RAND()</f>
-        <v>23.431624802856401</v>
+        <v>22.480677433162988</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>74</v>
@@ -3347,7 +3350,7 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" ref="G80:G97" ca="1" si="6">"INSERT INTO monitor_environmentdata VALUES("&amp;A80&amp;",'"&amp;C80&amp;"',datetime('"&amp;D80&amp;"'),"&amp;E80&amp;","&amp;F80&amp;");"</f>
-        <v>INSERT INTO monitor_environmentdata VALUES(79,'23.4316248028564',datetime('2021-05-07  12:14:48'),31,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(79,'22.480677433163',datetime('2021-05-07  12:14:48'),31,5);</v>
       </c>
       <c r="M80" s="4"/>
     </row>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ref="C81:C97" ca="1" si="7">RANDBETWEEN(15,25)+RAND()</f>
-        <v>23.467964768285448</v>
+        <v>23.358554464114555</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>74</v>
@@ -3373,7 +3376,7 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(80,'23.4679647682854',datetime('2021-05-07  12:14:48'),32,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(80,'23.3585544641146',datetime('2021-05-07  12:14:48'),32,5);</v>
       </c>
       <c r="M81" s="4"/>
     </row>
@@ -3386,7 +3389,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>18.591122191817099</v>
+        <v>16.369945899105389</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>74</v>
@@ -3399,7 +3402,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(81,'18.5911221918171',datetime('2021-05-07  12:14:48'),33,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(81,'16.3699458991054',datetime('2021-05-07  12:14:48'),33,5);</v>
       </c>
       <c r="M82" s="4"/>
     </row>
@@ -3412,7 +3415,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>17.604235557918564</v>
+        <v>17.708632094436158</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>74</v>
@@ -3425,7 +3428,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(82,'17.6042355579186',datetime('2021-05-07  12:14:48'),34,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(82,'17.7086320944362',datetime('2021-05-07  12:14:48'),34,5);</v>
       </c>
       <c r="M83" s="4"/>
     </row>
@@ -3438,7 +3441,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>21.788511804480468</v>
+        <v>18.844420203806379</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>74</v>
@@ -3451,7 +3454,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(83,'21.7885118044805',datetime('2021-05-07  12:14:48'),35,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(83,'18.8444202038064',datetime('2021-05-07  12:14:48'),35,5);</v>
       </c>
       <c r="M84" s="4"/>
     </row>
@@ -3464,7 +3467,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>19.816070432578179</v>
+        <v>15.660804903666969</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>74</v>
@@ -3477,7 +3480,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(84,'19.8160704325782',datetime('2021-05-07  12:14:48'),36,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(84,'15.660804903667',datetime('2021-05-07  12:14:48'),36,5);</v>
       </c>
       <c r="M85" s="4"/>
     </row>
@@ -3490,7 +3493,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>23.883476761107435</v>
+        <v>18.390126701659888</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>77</v>
@@ -3503,7 +3506,7 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(85,'23.8834767611074',datetime('2021-05-07  12:24:48'),31,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(85,'18.3901267016599',datetime('2021-05-07  12:24:48'),31,5);</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -3515,7 +3518,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>17.416613751257696</v>
+        <v>22.244886640069005</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>77</v>
@@ -3528,7 +3531,7 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(86,'17.4166137512577',datetime('2021-05-07  12:24:48'),32,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(86,'22.244886640069',datetime('2021-05-07  12:24:48'),32,5);</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -3540,7 +3543,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>15.568949928189681</v>
+        <v>21.973826068832771</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>77</v>
@@ -3553,7 +3556,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(87,'15.5689499281897',datetime('2021-05-07  12:24:48'),33,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(87,'21.9738260688328',datetime('2021-05-07  12:24:48'),33,5);</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3565,7 +3568,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>24.697553719380394</v>
+        <v>19.425676449266653</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>77</v>
@@ -3578,7 +3581,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(88,'24.6975537193804',datetime('2021-05-07  12:24:48'),34,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(88,'19.4256764492667',datetime('2021-05-07  12:24:48'),34,5);</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3590,7 +3593,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>16.736098398423763</v>
+        <v>22.760172554249483</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>77</v>
@@ -3603,7 +3606,7 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(89,'16.7360983984238',datetime('2021-05-07  12:24:48'),35,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(89,'22.7601725542495',datetime('2021-05-07  12:24:48'),35,5);</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3615,7 +3618,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>15.023348135059715</v>
+        <v>17.811829524012566</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>77</v>
@@ -3628,7 +3631,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(90,'15.0233481350597',datetime('2021-05-07  12:24:48'),36,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(90,'17.8118295240126',datetime('2021-05-07  12:24:48'),36,5);</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -3640,7 +3643,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>21.125463288574078</v>
+        <v>24.917176521589404</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>79</v>
@@ -3653,7 +3656,7 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(91,'21.1254632885741',datetime('2021-05-07  12:34:48'),31,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(91,'24.9171765215894',datetime('2021-05-07  12:34:48'),31,5);</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -3665,7 +3668,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>19.535545687664353</v>
+        <v>19.813485439844015</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>79</v>
@@ -3678,7 +3681,7 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(92,'19.5355456876644',datetime('2021-05-07  12:34:48'),32,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(92,'19.813485439844',datetime('2021-05-07  12:34:48'),32,5);</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3690,7 +3693,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>17.909252104465747</v>
+        <v>16.674265129239167</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>79</v>
@@ -3703,7 +3706,7 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(93,'17.9092521044657',datetime('2021-05-07  12:34:48'),33,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(93,'16.6742651292392',datetime('2021-05-07  12:34:48'),33,5);</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -3715,7 +3718,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>18.337570219863483</v>
+        <v>19.258196611009396</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>79</v>
@@ -3728,7 +3731,7 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(94,'18.3375702198635',datetime('2021-05-07  12:34:48'),34,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(94,'19.2581966110094',datetime('2021-05-07  12:34:48'),34,5);</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3740,7 +3743,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>22.610943550090333</v>
+        <v>23.637125475881401</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>79</v>
@@ -3753,7 +3756,7 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(95,'22.6109435500903',datetime('2021-05-07  12:34:48'),35,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(95,'23.6371254758814',datetime('2021-05-07  12:34:48'),35,5);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3765,7 +3768,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>25.679744744832728</v>
+        <v>20.028358948191581</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>79</v>
@@ -3778,7 +3781,7 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(96,'25.6797447448327',datetime('2021-05-07  12:34:48'),36,5);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(96,'20.0283589481916',datetime('2021-05-07  12:34:48'),36,5);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3790,7 +3793,7 @@
       </c>
       <c r="C98" s="1">
         <f ca="1">RANDBETWEEN(5,10)+RAND()</f>
-        <v>7.4270956347047186</v>
+        <v>10.856882168669468</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>74</v>
@@ -3803,7 +3806,7 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(97,'7.42709563470472',datetime('2021-05-07  12:14:48'),7,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(97,'10.8568821686695',datetime('2021-05-07  12:14:48'),7,6);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3815,7 +3818,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ref="C99:C115" ca="1" si="8">RANDBETWEEN(5,10)+RAND()</f>
-        <v>10.739081350587043</v>
+        <v>5.8469093805311703</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>74</v>
@@ -3828,7 +3831,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(98,'10.739081350587',datetime('2021-05-07  12:14:48'),8,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(98,'5.84690938053117',datetime('2021-05-07  12:14:48'),8,6);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3840,7 +3843,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9110216163971074</v>
+        <v>10.787472061080855</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>74</v>
@@ -3853,7 +3856,7 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(99,'5.91102161639711',datetime('2021-05-07  12:14:48'),17,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(99,'10.7874720610809',datetime('2021-05-07  12:14:48'),17,6);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3865,7 +3868,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8.47036201615132</v>
+        <v>7.267981972157938</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>74</v>
@@ -3878,7 +3881,7 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(100,'8.47036201615132',datetime('2021-05-07  12:14:48'),18,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(100,'7.26798197215794',datetime('2021-05-07  12:14:48'),18,6);</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3890,7 +3893,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5906040547079243</v>
+        <v>7.192496330551684</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>74</v>
@@ -3903,7 +3906,7 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(101,'7.59060405470792',datetime('2021-05-07  12:14:48'),27,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(101,'7.19249633055168',datetime('2021-05-07  12:14:48'),27,6);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3915,7 +3918,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9.9840958840274716</v>
+        <v>7.9992599533357467</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>74</v>
@@ -3928,7 +3931,7 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(102,'9.98409588402747',datetime('2021-05-07  12:14:48'),28,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(102,'7.99925995333575',datetime('2021-05-07  12:14:48'),28,6);</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3940,7 +3943,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7036957698023318</v>
+        <v>10.264123528600951</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>77</v>
@@ -3953,7 +3956,7 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(103,'6.70369576980233',datetime('2021-05-07  12:24:48'),7,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(103,'10.264123528601',datetime('2021-05-07  12:24:48'),7,6);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3965,7 +3968,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5459360346148898</v>
+        <v>6.7008981673479262</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>77</v>
@@ -3978,7 +3981,7 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(104,'8.54593603461489',datetime('2021-05-07  12:24:48'),8,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(104,'6.70089816734793',datetime('2021-05-07  12:24:48'),8,6);</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3990,7 +3993,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.422340478443726</v>
+        <v>10.259082944171483</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>77</v>
@@ -4003,7 +4006,7 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(105,'10.4223404784437',datetime('2021-05-07  12:24:48'),17,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(105,'10.2590829441715',datetime('2021-05-07  12:24:48'),17,6);</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4015,7 +4018,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1278961831877261</v>
+        <v>7.93622383567208</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>77</v>
@@ -4028,7 +4031,7 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(106,'6.12789618318773',datetime('2021-05-07  12:24:48'),18,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(106,'7.93622383567208',datetime('2021-05-07  12:24:48'),18,6);</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -4040,7 +4043,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.177888623307897</v>
+        <v>6.021437037439453</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>77</v>
@@ -4053,7 +4056,7 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(107,'10.1778886233079',datetime('2021-05-07  12:24:48'),27,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(107,'6.02143703743945',datetime('2021-05-07  12:24:48'),27,6);</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -4065,7 +4068,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.498126626438541</v>
+        <v>10.908080271857818</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>77</v>
@@ -4078,7 +4081,7 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(108,'10.4981266264385',datetime('2021-05-07  12:24:48'),28,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(108,'10.9080802718578',datetime('2021-05-07  12:24:48'),28,6);</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -4090,7 +4093,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.2167641858797191</v>
+        <v>7.136257336105186</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>79</v>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(109,'6.21676418587972',datetime('2021-05-07  12:34:48'),7,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(109,'7.13625733610519',datetime('2021-05-07  12:34:48'),7,6);</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -4115,7 +4118,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.331394618869937</v>
+        <v>6.9253044495456981</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>79</v>
@@ -4128,7 +4131,7 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(110,'5.33139461886994',datetime('2021-05-07  12:34:48'),8,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(110,'6.9253044495457',datetime('2021-05-07  12:34:48'),8,6);</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -4140,7 +4143,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5520059507129886</v>
+        <v>10.303224893271812</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>79</v>
@@ -4153,7 +4156,7 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(111,'8.55200595071299',datetime('2021-05-07  12:34:48'),17,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(111,'10.3032248932718',datetime('2021-05-07  12:34:48'),17,6);</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4165,7 +4168,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1975526715712244</v>
+        <v>10.702997757415316</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>79</v>
@@ -4178,7 +4181,7 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(112,'5.19755267157122',datetime('2021-05-07  12:34:48'),18,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(112,'10.7029977574153',datetime('2021-05-07  12:34:48'),18,6);</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4190,7 +4193,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8.4057019885612654</v>
+        <v>7.5740363644529838</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>79</v>
@@ -4203,7 +4206,7 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(113,'8.40570198856127',datetime('2021-05-07  12:34:48'),27,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(113,'7.57403636445298',datetime('2021-05-07  12:34:48'),27,6);</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4215,7 +4218,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7.513689099728472</v>
+        <v>9.3548639553258095</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>79</v>
@@ -4228,7 +4231,7 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(114,'7.51368909972847',datetime('2021-05-07  12:34:48'),28,6);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(114,'9.35486395532581',datetime('2021-05-07  12:34:48'),28,6);</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4240,7 +4243,7 @@
       </c>
       <c r="C116" s="1">
         <f ca="1">RANDBETWEEN(5,10)+RAND()</f>
-        <v>8.4872296677631116</v>
+        <v>10.575166827555497</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>74</v>
@@ -4253,7 +4256,7 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(115,'8.48722966776311',datetime('2021-05-07  12:14:48'),9,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(115,'10.5751668275555',datetime('2021-05-07  12:14:48'),9,7);</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4265,7 +4268,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" ref="C117:C133" ca="1" si="9">RANDBETWEEN(5,10)+RAND()</f>
-        <v>9.7332835517152638</v>
+        <v>8.0780349720090427</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>74</v>
@@ -4278,7 +4281,7 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(116,'9.73328355171526',datetime('2021-05-07  12:14:48'),10,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(116,'8.07803497200904',datetime('2021-05-07  12:14:48'),10,7);</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4290,7 +4293,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3293143909076068</v>
+        <v>9.5580625855627162</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>74</v>
@@ -4303,7 +4306,7 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(117,'9.32931439090761',datetime('2021-05-07  12:14:48'),19,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(117,'9.55806258556272',datetime('2021-05-07  12:14:48'),19,7);</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4315,7 +4318,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1476171223358689</v>
+        <v>10.912998838204677</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>74</v>
@@ -4328,7 +4331,7 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(118,'7.14761712233587',datetime('2021-05-07  12:14:48'),20,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(118,'10.9129988382047',datetime('2021-05-07  12:14:48'),20,7);</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4340,7 +4343,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6655681234016289</v>
+        <v>6.0082106760155751</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>74</v>
@@ -4353,7 +4356,7 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(119,'8.66556812340163',datetime('2021-05-07  12:14:48'),29,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(119,'6.00821067601558',datetime('2021-05-07  12:14:48'),29,7);</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4365,7 +4368,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4883772162226165</v>
+        <v>6.2712835159120743</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>74</v>
@@ -4378,7 +4381,7 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(120,'9.48837721622262',datetime('2021-05-07  12:14:48'),30,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(120,'6.27128351591207',datetime('2021-05-07  12:14:48'),30,7);</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4390,7 +4393,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8292339122237422</v>
+        <v>5.2063092331163388</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>77</v>
@@ -4403,7 +4406,7 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(121,'9.82923391222374',datetime('2021-05-07  12:24:48'),9,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(121,'5.20630923311634',datetime('2021-05-07  12:24:48'),9,7);</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4415,7 +4418,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4882060637377421</v>
+        <v>5.5637081879566983</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>77</v>
@@ -4428,7 +4431,7 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(122,'5.48820606373774',datetime('2021-05-07  12:24:48'),10,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(122,'5.5637081879567',datetime('2021-05-07  12:24:48'),10,7);</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4440,7 +4443,7 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8771862176694398</v>
+        <v>7.0938554515585208</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>77</v>
@@ -4453,7 +4456,7 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(123,'9.87718621766944',datetime('2021-05-07  12:24:48'),19,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(123,'7.09385545155852',datetime('2021-05-07  12:24:48'),19,7);</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4465,7 +4468,7 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9587789092282133</v>
+        <v>6.4415488260421974</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>77</v>
@@ -4478,7 +4481,7 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(124,'8.95877890922821',datetime('2021-05-07  12:24:48'),20,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(124,'6.4415488260422',datetime('2021-05-07  12:24:48'),20,7);</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4490,7 +4493,7 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10.077515258614767</v>
+        <v>7.8045804216867314</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>77</v>
@@ -4503,7 +4506,7 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(125,'10.0775152586148',datetime('2021-05-07  12:24:48'),29,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(125,'7.80458042168673',datetime('2021-05-07  12:24:48'),29,7);</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4515,7 +4518,7 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8690157325113876</v>
+        <v>6.1585055000459761</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>77</v>
@@ -4528,7 +4531,7 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(126,'5.86901573251139',datetime('2021-05-07  12:24:48'),30,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(126,'6.15850550004598',datetime('2021-05-07  12:24:48'),30,7);</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4540,7 +4543,7 @@
       </c>
       <c r="C128" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1502352577868562</v>
+        <v>6.7328535828682776</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>79</v>
@@ -4553,7 +4556,7 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(127,'7.15023525778686',datetime('2021-05-07  12:34:48'),9,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(127,'6.73285358286828',datetime('2021-05-07  12:34:48'),9,7);</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4565,7 +4568,7 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1878949008837818</v>
+        <v>9.8967641017145098</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>79</v>
@@ -4578,7 +4581,7 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(128,'8.18789490088378',datetime('2021-05-07  12:34:48'),10,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(128,'9.89676410171451',datetime('2021-05-07  12:34:48'),10,7);</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -4590,7 +4593,7 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10.560300090751404</v>
+        <v>7.917471337657104</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>79</v>
@@ -4603,7 +4606,7 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(129,'10.5603000907514',datetime('2021-05-07  12:34:48'),19,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(129,'7.9174713376571',datetime('2021-05-07  12:34:48'),19,7);</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -4615,7 +4618,7 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9.614571687394518</v>
+        <v>9.1815692717594377</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>79</v>
@@ -4628,7 +4631,7 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(130,'9.61457168739452',datetime('2021-05-07  12:34:48'),20,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(130,'9.18156927175944',datetime('2021-05-07  12:34:48'),20,7);</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4640,7 +4643,7 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8.7078673911534317</v>
+        <v>5.8877437778576702</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>79</v>
@@ -4653,7 +4656,7 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(131,'8.70786739115343',datetime('2021-05-07  12:34:48'),29,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(131,'5.88774377785767',datetime('2021-05-07  12:34:48'),29,7);</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -4665,7 +4668,7 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3999239315411076</v>
+        <v>10.086670683431754</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>79</v>
@@ -4678,7 +4681,7 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO monitor_environmentdata VALUES(132,'6.39992393154111',datetime('2021-05-07  12:34:48'),30,7);</v>
+        <v>INSERT INTO monitor_environmentdata VALUES(132,'10.0866706834318',datetime('2021-05-07  12:34:48'),30,7);</v>
       </c>
     </row>
   </sheetData>
@@ -4692,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30C08A-53BB-48C2-A9ED-907B636B1BD8}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5539,7 +5542,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -5558,7 +5561,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32:H61" si="1">"INSERT INTO monitor_device VALUES("&amp;A32&amp;",'"&amp;B32&amp;"','"&amp;C32&amp;"','"&amp;D32&amp;"',"&amp;E32&amp;","&amp;F32&amp;","&amp;G32&amp;");"</f>
-        <v>INSERT INTO monitor_device VALUES(31,'大棚1-土壤水分1','1号大棚南','正常',1,1,1);</v>
+        <v>INSERT INTO monitor_device VALUES(31,'大棚1-土壤温度1','1号大棚南','正常',1,1,1);</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -5566,7 +5569,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -5585,7 +5588,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO monitor_device VALUES(32,'大棚1-土壤水分2','1号大棚北','正常',1,1,1);</v>
+        <v>INSERT INTO monitor_device VALUES(32,'大棚1-土壤温度2','1号大棚北','正常',1,1,1);</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5593,7 +5596,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -5612,7 +5615,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO monitor_device VALUES(33,'大棚2-土壤水分1','1号大棚南','正常',1,1,2);</v>
+        <v>INSERT INTO monitor_device VALUES(33,'大棚2-土壤温度1','1号大棚南','正常',1,1,2);</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -5620,7 +5623,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
@@ -5639,7 +5642,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO monitor_device VALUES(34,'大棚2-土壤水分2','1号大棚北','正常',1,1,2);</v>
+        <v>INSERT INTO monitor_device VALUES(34,'大棚2-土壤温度2','1号大棚北','正常',1,1,2);</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5647,7 +5650,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -5666,7 +5669,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO monitor_device VALUES(35,'大棚3-土壤水分1','1号大棚南','正常',1,1,3);</v>
+        <v>INSERT INTO monitor_device VALUES(35,'大棚3-土壤温度1','1号大棚南','正常',1,1,3);</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -5674,7 +5677,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -5693,7 +5696,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO monitor_device VALUES(36,'大棚3-土壤水分2','1号大棚北','正常',1,1,3);</v>
+        <v>INSERT INTO monitor_device VALUES(36,'大棚3-土壤温度2','1号大棚北','正常',1,1,3);</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -5701,7 +5704,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -5728,7 +5731,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -5755,7 +5758,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -5782,7 +5785,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -5809,7 +5812,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
@@ -5836,7 +5839,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -5863,7 +5866,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -5890,7 +5893,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -5917,7 +5920,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>45</v>
@@ -5944,7 +5947,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
@@ -5971,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
@@ -5998,7 +6001,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
@@ -6025,7 +6028,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
@@ -6052,7 +6055,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
         <v>45</v>
@@ -6079,7 +6082,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
@@ -6106,7 +6109,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
@@ -6133,7 +6136,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
@@ -6160,7 +6163,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
         <v>46</v>
@@ -6187,7 +6190,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
         <v>46</v>
@@ -6214,7 +6217,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -6241,7 +6244,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>46</v>
@@ -6268,7 +6271,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -6295,7 +6298,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
@@ -6322,7 +6325,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
         <v>46</v>
@@ -6358,7 +6361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642ADEA5-48F0-4DA1-A359-FCBB17B10582}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6373,16 +6376,16 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6390,16 +6393,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F2" t="str">
         <f>"INSERT INTO controller_deviceorder (id, name, device_id, path, parameter)VALUES("&amp;A2&amp;",'"&amp;B2&amp;"',"&amp;C2&amp;",'"&amp;D2&amp;"','"&amp;E2&amp;"');"</f>
@@ -6411,16 +6414,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">"INSERT INTO controller_deviceorder (id, name, device_id, path, parameter)VALUES("&amp;A3&amp;",'"&amp;B3&amp;"',"&amp;C3&amp;",'"&amp;D3&amp;"','"&amp;E3&amp;"');"</f>
@@ -6432,16 +6435,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -6453,16 +6456,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -6474,16 +6477,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6">
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -6495,16 +6498,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -6516,16 +6519,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -6537,16 +6540,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -6558,16 +6561,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -6579,16 +6582,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -6600,16 +6603,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -6621,16 +6624,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -6642,16 +6645,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -6663,16 +6666,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -6684,16 +6687,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -6705,16 +6708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17">
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -6726,16 +6729,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -6747,16 +6750,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C19">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -6768,16 +6771,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -6789,16 +6792,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -6810,16 +6813,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -6831,16 +6834,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C23">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -6852,16 +6855,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -6873,16 +6876,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -6894,16 +6897,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C26">
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -6915,16 +6918,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -6936,16 +6939,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -6957,16 +6960,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C29">
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -6978,16 +6981,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C30">
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -6999,16 +7002,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -7020,16 +7023,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C32">
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -7041,16 +7044,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C33">
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -7062,16 +7065,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C34">
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -7083,16 +7086,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C35">
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -7104,16 +7107,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C36">
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -7125,16 +7128,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C37">
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -7146,16 +7149,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38">
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -7167,16 +7170,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C39">
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -7188,16 +7191,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -7209,16 +7212,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C41">
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -7230,16 +7233,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C42">
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -7251,16 +7254,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43">
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -7272,16 +7275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C44">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -7293,16 +7296,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -7314,16 +7317,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -7335,16 +7338,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -7356,16 +7359,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48">
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -7377,16 +7380,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -7398,16 +7401,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -7419,16 +7422,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C51">
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -7440,16 +7443,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C52">
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -7461,16 +7464,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C53">
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -7482,16 +7485,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C54">
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -7503,16 +7506,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C55">
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -7524,16 +7527,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C56">
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -7545,16 +7548,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C57">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -7566,16 +7569,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -7587,16 +7590,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -7608,16 +7611,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C60">
         <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -7629,16 +7632,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C61">
         <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -7650,16 +7653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C62">
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -7671,16 +7674,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63">
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -7692,16 +7695,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C64">
         <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -7713,16 +7716,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C65">
         <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -7734,16 +7737,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C66">
         <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -7755,16 +7758,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C67">
         <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F73" si="1">"INSERT INTO controller_deviceorder (id, name, device_id, path, parameter)VALUES("&amp;A67&amp;",'"&amp;B67&amp;"',"&amp;C67&amp;",'"&amp;D67&amp;"','"&amp;E67&amp;"');"</f>
@@ -7776,16 +7779,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C68">
         <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -7797,16 +7800,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C69">
         <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -7818,16 +7821,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C70">
         <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -7839,16 +7842,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C71">
         <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -7860,16 +7863,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C72">
         <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -7881,16 +7884,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C73">
         <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -7931,7 +7934,7 @@
         <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -8393,16 +8396,16 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
